--- a/task list.xlsx
+++ b/task list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rob\SMU\gitrob\Dallas_Building_Fire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849A5431-3B73-4106-865F-BA4F872F92CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F62AEE-9FE8-47BB-913A-099E646C0D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="180" windowWidth="28800" windowHeight="15470" xr2:uid="{611EE3B4-C639-4E76-8114-E2FBD9D5C5E6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Data Preparation:</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Drop Rows:</t>
   </si>
   <si>
-    <t>stories &lt; 100</t>
-  </si>
-  <si>
     <t>total_saved &gt; 0</t>
   </si>
   <si>
@@ -87,6 +84,69 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>Analysis Tasks:</t>
+  </si>
+  <si>
+    <t>Basics:</t>
+  </si>
+  <si>
+    <t>Regression Table / heat chart</t>
+  </si>
+  <si>
+    <t>Describe basic statistics</t>
+  </si>
+  <si>
+    <t>chart types of fires (pie)</t>
+  </si>
+  <si>
+    <t>Analyze fire frequency sources:</t>
+  </si>
+  <si>
+    <t>Time vs frequency frequency</t>
+  </si>
+  <si>
+    <t>weather vs fire frequency</t>
+  </si>
+  <si>
+    <t>heat map of all fires, might be nice to include city borders if we can find that.</t>
+  </si>
+  <si>
+    <t>Analyze extent of damage:</t>
+  </si>
+  <si>
+    <t>Sprinkler &amp; Fire Alarm vs % Loss compare none, one of each, and both. Box chart?</t>
+  </si>
+  <si>
+    <t>battalion vs % loss</t>
+  </si>
+  <si>
+    <t>distance to battalion vs % loss</t>
+  </si>
+  <si>
+    <t>above, per structure type</t>
+  </si>
+  <si>
+    <t>stories vs % loss</t>
+  </si>
+  <si>
+    <t>structure type vs % loss</t>
+  </si>
+  <si>
+    <t>Still probably should demonstrate whether some inputs affect likelihood of a fire.</t>
+  </si>
+  <si>
+    <t>Other notes if we want more to do: Pull past weather data for City of Dallas for every day in range. Use this to correlate frequency of fires with all available weather data (regression chart).</t>
+  </si>
+  <si>
+    <t>stories &gt; 100</t>
+  </si>
+  <si>
+    <t>STRUCTURE_TYPE' == 'VEHICLE'</t>
+  </si>
+  <si>
+    <t># stories vs % loss (need to drop rows with no stories data)</t>
   </si>
   <si>
     <r>
@@ -95,7 +155,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -104,65 +164,17 @@
     </r>
   </si>
   <si>
-    <t>Analysis Tasks:</t>
-  </si>
-  <si>
-    <t>Basics:</t>
-  </si>
-  <si>
-    <t>Regression Table / heat chart</t>
-  </si>
-  <si>
-    <t>Describe basic statistics</t>
-  </si>
-  <si>
-    <t>chart types of fires (pie)</t>
-  </si>
-  <si>
-    <t>Analyze fire frequency sources:</t>
-  </si>
-  <si>
-    <t>Time vs frequency frequency</t>
-  </si>
-  <si>
-    <t>weather vs fire frequency</t>
-  </si>
-  <si>
-    <t>heat map of all fires, might be nice to include city borders if we can find that.</t>
-  </si>
-  <si>
-    <t>Analyze extent of damage:</t>
-  </si>
-  <si>
-    <t>Sprinkler &amp; Fire Alarm vs % Loss compare none, one of each, and both. Box chart?</t>
-  </si>
-  <si>
-    <t>battalion vs % loss</t>
-  </si>
-  <si>
-    <t>distance to battalion vs % loss</t>
-  </si>
-  <si>
-    <t>above, per structure type</t>
-  </si>
-  <si>
-    <t>stories vs % loss</t>
-  </si>
-  <si>
-    <t>structure type vs % loss</t>
-  </si>
-  <si>
-    <t>Still probably should demonstrate whether some inputs affect likelihood of a fire.</t>
-  </si>
-  <si>
-    <t>Other notes if we want more to do: Pull past weather data for City of Dallas for every day in range. Use this to correlate frequency of fires with all available weather data (regression chart).</t>
+    <t>check data w/ groupby on STRUCTURE_TYPE, and then CONSTRUCTION to check for data which needs to be removed</t>
+  </si>
+  <si>
+    <t>split battalion on '/'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +186,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,6 +266,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F34407-15B6-4719-8A57-C74526CD346A}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +679,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -659,7 +692,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -672,7 +705,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -684,46 +717,46 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -731,40 +764,40 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -772,69 +805,67 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -842,15 +873,17 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
+      <c r="A30" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -859,7 +892,7 @@
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -867,26 +900,24 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
+      <c r="A33" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -895,7 +926,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -904,7 +935,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -912,15 +943,17 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -928,29 +961,73 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>